--- a/Lab9/Lab9 Wednesday.xlsx
+++ b/Lab9/Lab9 Wednesday.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Lab 9" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Lab 9'!$E$7:$E$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Lab 9'!$F$7:$F$22</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -187,6 +191,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Table 9.5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t-Test Results for Mean HRA60&gt;120</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concousion:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample mean + tnumber * st.d</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>&gt;5%</t>
+  </si>
+  <si>
+    <t>base on our bov, it is not likely that HRA60 is greater than 120</t>
+  </si>
+  <si>
+    <t>Stand error</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 9.4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">95% confidence interval for HRI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Table 9.4: </t>
     </r>
     <r>
@@ -199,63 +295,6 @@
       </rPr>
       <t>95% confidence interval for HRI</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Table 9.5: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t-Test Results for Mean HRA60&gt;120</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRA60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concousion:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decision:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sample mean + tnumber * st.d</t>
-  </si>
-  <si>
-    <t>reject</t>
-  </si>
-  <si>
-    <t>&gt;5%</t>
-  </si>
-  <si>
-    <t>base on our bov, it is not likely that HRA60 is greater than 120</t>
   </si>
 </sst>
 </file>
@@ -263,8 +302,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -312,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -381,12 +420,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,29 +451,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +464,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,13 +793,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="42" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -769,32 +826,32 @@
       <c r="F4" s="1"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="11" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
@@ -802,7 +859,7 @@
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -810,14 +867,14 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="15">
         <v>68</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <v>60</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="1">
         <f>C8-E8</f>
         <v>8</v>
@@ -836,26 +893,26 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="15">
         <v>108</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
         <v>80</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G31" si="0">C9-E9</f>
+        <f t="shared" ref="G9:G22" si="0">C9-E9</f>
         <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="7">
         <f>AVERAGE(C8:D22)</f>
         <v>101.26666666666667</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="9">
         <f>AVERAGE(G8:G22)</f>
         <v>25.333333333333332</v>
       </c>
@@ -864,14 +921,14 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="15">
         <v>84</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15">
         <v>72</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -892,26 +949,26 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="15">
         <v>100</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <v>88</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="9">
         <f>_xlfn.STDEV.S(C8:D22)</f>
         <v>17.214888351435217</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="9">
         <f>_xlfn.STDEV.S(G8:G22)</f>
         <v>14.430457208213996</v>
       </c>
@@ -920,14 +977,14 @@
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="15">
         <v>92</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <v>80</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -948,14 +1005,14 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="15">
         <v>120</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
         <v>76</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -976,53 +1033,64 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="15">
         <v>88</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
         <v>64</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="I14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="21">
+        <f>J11/SQRT(J8)</f>
+        <v>4.4448650594619101</v>
+      </c>
+      <c r="K14" s="21">
+        <f>K11/SQRT(K8)</f>
+        <v>3.7259280297047721</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="15">
         <v>89</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
         <v>52</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="I15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="15">
         <v>100</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
         <v>72</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1039,14 +1107,14 @@
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="15">
         <v>100</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15">
         <v>68</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1054,235 +1122,300 @@
       <c r="I17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="18">
-        <f>_xlfn.T.INV(0.025,J8-1)*J11+J9</f>
-        <v>64.344403296517129</v>
-      </c>
-      <c r="K17" s="18">
-        <f>_xlfn.T.INV(0.975,J8-1)*J11+J9</f>
-        <v>138.18893003681617</v>
+      <c r="J17" s="11">
+        <f>_xlfn.T.INV(0.025,K8-1)*K14+K9</f>
+        <v>17.342012495082724</v>
+      </c>
+      <c r="K17" s="11">
+        <f>_xlfn.T.INV(0.975,K8-1)*K14+K9</f>
+        <v>33.324654171583937</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="15">
         <v>96</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <v>88</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="15">
         <v>128</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
         <v>90</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="I19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="15">
         <v>112</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
         <v>72</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="15">
         <v>134</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
         <v>85</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="13">
+        <v>25</v>
+      </c>
+      <c r="J21" s="6">
         <f>(J9-120)/J11</f>
         <v>-1.0882053342955038</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="12">
         <f>1-_xlfn.T.DIST(J21,14,TRUE)</f>
         <v>0.85255813794266366</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="15">
         <v>100</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
         <v>92</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="1"/>
       <c r="I23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="1"/>
+      <c r="I25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="11">
+        <f>_xlfn.T.INV(0.025,K8-1)*K11+K9</f>
+        <v>-5.6169191874115683</v>
+      </c>
+      <c r="K27" s="11">
+        <f>_xlfn.T.INV(0.975,K8-1)*K11+K9</f>
+        <v>56.283585854078225</v>
+      </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="I6:K6"/>
@@ -1299,47 +1432,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab9/Lab9 Wednesday.xlsx
+++ b/Lab9/Lab9 Wednesday.xlsx
@@ -9,10 +9,6 @@
   <sheets>
     <sheet name="Lab 9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Lab 9'!$E$7:$E$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Lab 9'!$F$7:$F$22</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -179,30 +175,6 @@
   </si>
   <si>
     <t>Upper Bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Table 9.5: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t-Test Results for Mean HRA60&gt;120</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +266,49 @@
         <scheme val="minor"/>
       </rPr>
       <t>95% confidence interval for HRI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 9.5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t-Test Results for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HRA60&gt;120</t>
     </r>
   </si>
 </sst>
@@ -464,32 +479,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,7 +791,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J23" sqref="J23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,32 +841,32 @@
       <c r="F4" s="1"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="I6" s="14" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="I6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
@@ -867,14 +882,14 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <v>68</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16">
         <v>60</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="1">
         <f>C8-E8</f>
         <v>8</v>
@@ -893,14 +908,14 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <v>108</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
         <v>80</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G22" si="0">C9-E9</f>
         <v>28</v>
@@ -921,14 +936,14 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>84</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
         <v>72</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -949,14 +964,14 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <v>100</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
         <v>88</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -977,14 +992,14 @@
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>92</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
         <v>80</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1005,14 +1020,14 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <v>120</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <v>76</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1033,26 +1048,26 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>88</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
         <v>64</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="I14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="14">
         <f>J11/SQRT(J8)</f>
         <v>4.4448650594619101</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="14">
         <f>K11/SQRT(K8)</f>
         <v>3.7259280297047721</v>
       </c>
@@ -1061,36 +1076,36 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="16">
         <v>89</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <v>100</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16">
         <v>72</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1107,14 +1122,14 @@
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="16">
         <v>100</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16">
         <v>68</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1135,173 +1150,173 @@
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>96</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
         <v>88</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="16">
         <v>128</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16">
         <v>90</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="16">
         <v>112</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
         <v>72</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="16">
         <v>134</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16">
         <v>85</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="6">
-        <f>(J9-120)/J11</f>
-        <v>-1.0882053342955038</v>
+        <f>(J9-120)/J14</f>
+        <v>-4.2146011369805612</v>
       </c>
       <c r="K21" s="12">
         <f>1-_xlfn.T.DIST(J21,14,TRUE)</f>
-        <v>0.85255813794266366</v>
+        <v>0.99956718628411412</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>100</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
         <v>92</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="1"/>
       <c r="I23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="1"/>
-      <c r="I25" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
@@ -1315,10 +1330,10 @@
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>19</v>
@@ -1336,58 +1351,70 @@
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -1404,34 +1431,22 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
